--- a/145 × 漫游2 - Date and Time System 日期和时间系统.xlsx
+++ b/145 × 漫游2 - Date and Time System 日期和时间系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概述说明" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>你的游戏需要时间系统吗？
 该插件为RPG Maker MZ添加了与时间相关的机制，允许您控制由自己的自定义规则控制的游戏时间，或与玩家的PC或设备同步的实时。</t>
@@ -298,13 +298,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>如果您安装了VisuStella MZ的事件和移动核心，您将可以在加载地图时访问允许某些瓷砖交换到另一个瓷砖。
 在基本tileset的备注框中，您可以插入</t>
     </r>
@@ -434,6 +427,489 @@
     <t>如果您使用了VisuStella MZ的Lighting Effects插件，则不会使用色调/色调（tints/tones），而是使用覆盖值（overlay values）。
 这样，覆盖就可以利用播放中的照明系统。
 只要启用了Lighting Effects，如果对此插件的音调相关插件参数的任何更改都无效，请不要感到惊讶。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Time-Type-Related Notetags    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间类型</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Time System: None&gt;
+&lt;Time System: Game&gt;
+&lt;Time System: Real&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">将其中一个注释标签插入地图的注释框中，它将把时间类型更改为所需的类型。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果不使用此notetag，请使用插件参数中声明的默认时间系统类型。</t>
+    </r>
+  </si>
+  <si>
+    <t>地图</t>
+  </si>
+  <si>
+    <t>&lt;Pause Game Time&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">当玩家在地图上时，阻止游戏时间向前推进。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·这不适用于Real Time。
+·使用插件命令，暂停/取消暂停（pause/unpause）游戏时间，对任何具有此注释标签的地图都没有影响。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Time Tone-Related Notetags    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间色调</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;No Time Tone&gt;
+&lt;Time Tone&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HUD-Related Notetags    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HUD</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Show Date Time HUD&gt;
+&lt;Hide Date Time HUD&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Battle-Related Notetags    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>战斗</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Encounter Hour: x&gt;
+&lt;Encounter Hours: x, x, x&gt;
+&lt;Encounter Weekday: x&gt;
+&lt;Encounter Weekdays: x, x, x&gt;
+&lt;Encounter Date: x&gt;
+&lt;Encounter Dates: x, x, x&gt;
+&lt;Encounter Month: x&gt;
+&lt;Encounter Months: x, x, x&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Encounter Season: type&gt;
+&lt;Encounter Seasons: type, type, type&gt;
+&lt;Encounter Cycle: type&gt;
+&lt;Encounter Cycle: type, type, type&gt;</t>
+  </si>
+  <si>
+    <t>&lt;season Battleback1: filename&gt;
+&lt;season Battleback2: filename&gt;</t>
+  </si>
+  <si>
+    <t>&lt;season Region x Battleback1: filename&gt;
+&lt;season Region x Battleback2: filename&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tileset-Related Notetags    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图块</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;type Swap To: x&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bypass Tileset Swap&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shop-Related Notetags    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商店</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Shop Buy Hour: x&gt;
+&lt;Shop Buy Hours: x, x, x&gt;
+&lt;Shop Buy Weekday: x&gt;
+&lt;Shop Buy Weekdays: x, x, x&gt;
+&lt;Shop Buy Date: x&gt;
+&lt;Shop Buy Dates: x, x, x&gt;
+&lt;Shop Buy Month: x&gt;
+&lt;Shop Buy Months: x, x, x&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Shop Buy Season: type&gt;
+&lt;Shop Buy Seasons: type, type, type&gt;
+&lt;Shop Buy Cycle: type&gt;
+&lt;Shop Buy Cycle: type, type, type&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Shop Price Hour x: y%&gt;
+&lt;Shop Price Hours x, x, x: y%&gt;
+&lt;Shop Price Weekday x: y%&gt;
+&lt;Shop Price Weekdays x, x, x: y%&gt;
+&lt;Shop Price Date x: y%&gt;
+&lt;Shop Price Dates x, x, x: y%&gt;
+&lt;Shop Price Month x: y%&gt;
+&lt;Shop Price Months x, x, x: y%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Shop Price Spring Months: y%&gt;
+&lt;Shop Price Summer Months: y%&gt;
+&lt;Shop Price Autumn Months: y%&gt;
+&lt;Shop Price Winter Months: y%&gt;
+&lt;Shop Price Weekdays Only: y%&gt;
+&lt;Shop Price Weekends Only: y%&gt;
+&lt;Shop Price Dawn Hours: y%&gt;
+&lt;Shop Price Day Hours: y%&gt;
+&lt;Shop Price Dusk Hours: y%&gt;
+&lt;Shop Price Night Hours: y%&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Skill-Related Notetags    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Require Hour x: y%&gt;
+&lt;Require Hours x, x, x: y%&gt;
+&lt;Require Weekday x: y%&gt;
+&lt;Require Weekdays x, x, x: y%&gt;
+&lt;Require Date x: y%&gt;
+&lt;Require Dates x, x, x: y%&gt;
+&lt;Require Month x: y%&gt;
+&lt;Require Months x, x, x: y%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Require Season: type&gt;
+&lt;Require Seasons: type, type, type&gt;
+&lt;Require Cycle: type&gt;
+&lt;Require Cycle: type, type, type&gt;</t>
+  </si>
+  <si>
+    <t>&lt;type Cost If Hour x: y%&gt;
+&lt;type Cost If Hours x, x, x: y%&gt;
+&lt;type Cost If Weekday x: y%&gt;
+&lt;type Cost If Weekdays x, x, x: y%&gt;
+&lt;type Cost If Date x: y%&gt;
+&lt;type Cost If Dates x, x, x: y%&gt;
+&lt;type Cost If Month x: y%&gt;
+&lt;type Cost If Months x, x, x: y%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;type Cost If Spring Months: y%&gt;
+&lt;type Cost If Summer Months: y%&gt;
+&lt;type Cost If Autumn Months: y%&gt;
+&lt;type Cost If Winter Months: y%&gt;
+&lt;type Cost If Weekdays Only: y%&gt;
+&lt;type Cost If Weekends Only: y%&gt;
+&lt;type Cost If Dawn Hours: y%&gt;
+&lt;type Cost If Day Hours: y%&gt;
+&lt;type Cost If Dusk Hours: y%&gt;
+&lt;type Cost If Night Hours: y%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Damage If Hour x: y%&gt;
+&lt;Damage If Hours x, x, x: y%&gt;
+&lt;Healing If Hour x: y%&gt;
+&lt;Healing If Hours x, x, x: y%&gt;
+&lt;Damage If Weekday x: y%&gt;
+&lt;Damage If Weekdays x, x, x: y%&gt;
+&lt;Healing If Weekday x: y%&gt;
+&lt;Healing If Weekdays x, x, x: y%&gt;
+&lt;Damage If Date x: y%&gt;
+&lt;Damage If Dates x, x, x: y%&gt;
+&lt;Healing If Date x: y%&gt;
+&lt;Healing If Dates x, x, x: y%&gt;
+&lt;Damage If Month x: y%&gt;
+&lt;Damage If Months x, x, x: y%&gt;
+&lt;Healing If Month x: y%&gt;
+&lt;Healing If Months x, x, x: y%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Damage If Spring Months: y%&gt;
+&lt;Damage If Summer Months: y%&gt;
+&lt;Damage If Autumn Months: y%&gt;
+&lt;Damage If Winter Months: y%&gt;
+&lt;Healing If Spring Months: y%&gt;
+&lt;Healing If Summer Months: y%&gt;
+&lt;Healing If Autumn Months: y%&gt;
+&lt;Healing If Winter Months: y%&gt;
+&lt;Damage If Weekdays Only: y%&gt;
+&lt;Damage If Weekends Only: y%&gt;
+&lt;Healing If Weekdays Only: y%&gt;
+&lt;Healing If Weekends Only: y%&gt;
+&lt;Damage If Dawn Hours: y%&gt;
+&lt;Damage If Day Hours: y%&gt;
+&lt;Damage If Dusk Hours: y%&gt;
+&lt;Damage If Night Hours: y%&gt;
+&lt;Healing If Dawn Hours: y%&gt;
+&lt;Healing If Day Hours: y%&gt;
+&lt;Healing If Dusk Hours: y%&gt;
+&lt;Healing If Night Hours: y%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Turns If Hour x: +y&gt;
+&lt;Turns If Hour x: -y&gt;
+&lt;Turns If Hours x, x, x: +y&gt;
+&lt;Turns If Hours x, x, x: -y&gt;
+&lt;Turns If Weekday x: +y&gt;
+&lt;Turns If Weekday x: -y&gt;
+&lt;Turns If Weekdays x, x, x: +y&gt;
+&lt;Turns If Weekdays x, x, x: -y&gt;
+&lt;Turns If Date x: +y&gt;
+&lt;Turns If Date x: -y&gt;
+&lt;Turns If Dates x, x, x: +y&gt;
+&lt;Turns If Dates x, x, x: -y&gt;
+&lt;Turns If Month x: +y&gt;
+&lt;Turns If Month x: -y&gt;
+&lt;Turns If Months x, x, x: +y&gt;
+&lt;Turns If Months x, x, x: -y&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Turns If Spring Months: +y&gt;
+&lt;Turns If Spring Months: -y&gt;
+&lt;Turns If Summer Months: +y&gt;
+&lt;Turns If Summer Months: -y&gt;
+&lt;Turns If Autumn Months: +y&gt;
+&lt;Turns If Autumn Months: -y&gt;
+&lt;Turns If Winter Months: +y&gt;
+&lt;Turns If Winter Months: -y&gt;
+&lt;Turns If Weekdays Only: +y&gt;
+&lt;Turns If Weekdays Only: -y&gt;
+&lt;Turns If Weekends Only: +y&gt;
+&lt;Turns If Weekends Only: -y&gt;
+&lt;Turns If Dawn Hours: +y&gt;
+&lt;Turns If Dawn Hours: -y&gt;
+&lt;Turns If Day Hours: +y&gt;
+&lt;Turns If Day Hours: -y&gt;
+&lt;Turns If Dusk Hours: +y&gt;
+&lt;Turns If Dusk Hours: -y&gt;
+&lt;Turns If Night Hours: +y&gt;
+&lt;Turns If Night Hours: -y&gt;</t>
   </si>
 </sst>
 </file>
@@ -446,7 +922,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,15 +931,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -622,15 +1105,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7030A0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -962,153 +1459,165 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2067,8 +2576,8 @@
   <sheetPr/>
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2078,7 +2587,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="2:2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2153,18 +2662,18 @@
       </c>
     </row>
     <row r="17" ht="18.75" spans="1:2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" ht="27" spans="2:2">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2174,33 +2683,33 @@
       </c>
     </row>
     <row r="22" ht="18.75" spans="1:2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="8"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" ht="27" spans="2:2">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" ht="27" spans="2:2">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" ht="27" spans="2:2">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2210,37 +2719,37 @@
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" ht="27" spans="2:2">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" ht="27" spans="2:2">
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" ht="27" spans="2:2">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" ht="27" spans="2:2">
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" ht="27" spans="2:2">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2250,17 +2759,17 @@
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="38" ht="27" spans="2:2">
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2270,12 +2779,12 @@
       </c>
     </row>
     <row r="41" ht="40.5" spans="2:2">
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="42" ht="27" spans="2:2">
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2290,38 +2799,38 @@
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="46" ht="40.5" spans="2:2">
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="47" ht="27" spans="2:2">
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="48" ht="27" spans="2:2">
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="50" ht="18.75" spans="1:2">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="4"/>
+      <c r="B50" s="8"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="52" ht="40.5" spans="2:2">
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2334,20 +2843,180 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="59.5" customWidth="1"/>
     <col min="2" max="2" width="88.75" customWidth="1"/>
     <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="39.375" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" ht="37.5" spans="1:2">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:1">
+      <c r="A9" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" ht="148.5" spans="1:1">
+      <c r="A12" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" ht="67.5" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:1">
+      <c r="A14" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" ht="27" spans="1:1">
+      <c r="A15" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A21" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" ht="148.5" spans="1:1">
+      <c r="A22" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" ht="67.5" spans="1:1">
+      <c r="A23" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" ht="148.5" spans="1:1">
+      <c r="A24" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" ht="162" spans="1:1">
+      <c r="A25" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A27" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" ht="148.5" spans="1:1">
+      <c r="A28" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" ht="67.5" spans="1:1">
+      <c r="A29" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" ht="148.5" spans="1:1">
+      <c r="A30" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" ht="162" spans="1:1">
+      <c r="A31" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" ht="310.5" spans="1:1">
+      <c r="A32" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" ht="337.5" spans="1:1">
+      <c r="A33" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A35" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" ht="310.5" spans="1:1">
+      <c r="A36" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" ht="391.5" spans="1:1">
+      <c r="A37" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
